--- a/files/mydata.xlsx
+++ b/files/mydata.xlsx
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.009232706620241503</v>
+        <v>-0.008444407855276937</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.101767915552482</v>
+        <v>-0.1094622660707682</v>
       </c>
     </row>
     <row r="3">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01880592982750385</v>
+        <v>0.01804258645977824</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.06639158961828796</v>
+        <v>-0.06487959822174159</v>
       </c>
     </row>
     <row r="4">
@@ -3211,10 +3211,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01791532979696056</v>
+        <v>-0.01406859480775891</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1368781987577677</v>
+        <v>-0.1368339875247329</v>
       </c>
     </row>
     <row r="5">
@@ -3224,10 +3224,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03688678890524896</v>
+        <v>-0.03411932960443664</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1033148655656259</v>
+        <v>-0.08785609296406617</v>
       </c>
     </row>
     <row r="6">
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03826192918088052</v>
+        <v>0.03861168628558515</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06777158491779119</v>
+        <v>0.06884982598014176</v>
       </c>
     </row>
     <row r="7">
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04013436193345113</v>
+        <v>0.04333055180206427</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.006761922230944037</v>
+        <v>-0.008294602613896128</v>
       </c>
     </row>
     <row r="8">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05388176181208108</v>
+        <v>0.05463788674067471</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1024479113449343</v>
+        <v>0.1008690175972879</v>
       </c>
     </row>
     <row r="9">
@@ -3276,10 +3276,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0001549640495795679</v>
+        <v>-0.0009094583115074688</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007218793779611671</v>
+        <v>-0.007598913412075481</v>
       </c>
     </row>
     <row r="10">
@@ -3289,10 +3289,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002262011040584178</v>
+        <v>0.005984786241897373</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003434985612984747</v>
+        <v>0.01753201093291864</v>
       </c>
     </row>
     <row r="11">
@@ -3302,10 +3302,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02522757684811949</v>
+        <v>-0.02552647542208433</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.08315038940403609</v>
+        <v>-0.09380135130602865</v>
       </c>
     </row>
     <row r="12">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05437780422071226</v>
+        <v>0.05139615464402594</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0454908832127694</v>
+        <v>0.03961899047833867</v>
       </c>
     </row>
     <row r="13">
@@ -3328,10 +3328,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02096486764479777</v>
+        <v>0.01589145091813406</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01691771316807716</v>
+        <v>-0.01717510872054845</v>
       </c>
     </row>
     <row r="14">
@@ -3341,10 +3341,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06183390289079396</v>
+        <v>0.06515370426233856</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1573873915523291</v>
+        <v>0.1560620312485844</v>
       </c>
     </row>
     <row r="15">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004389494223869402</v>
+        <v>0.002026645442820152</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01379282629117369</v>
+        <v>-0.0222382348962128</v>
       </c>
     </row>
     <row r="16">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03632729550474322</v>
+        <v>0.03660130210337227</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01493063914822414</v>
+        <v>0.02181836561532691</v>
       </c>
     </row>
     <row r="17">
@@ -3380,10 +3380,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004491443398874249</v>
+        <v>0.006360813007922838</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.05367778872314373</v>
+        <v>-0.05316597464669028</v>
       </c>
     </row>
     <row r="18">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01977983663091434</v>
+        <v>-0.02203300235792993</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1165120122133521</v>
+        <v>-0.1115433156507788</v>
       </c>
     </row>
     <row r="19">
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003930831653997296</v>
+        <v>-0.00211152299307286</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01552163807442411</v>
+        <v>-0.01233558609848841</v>
       </c>
     </row>
     <row r="20">
@@ -3419,10 +3419,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02595626509923021</v>
+        <v>-0.02348090143757871</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.07630250482819974</v>
+        <v>-0.09005658196285365</v>
       </c>
     </row>
     <row r="21">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01664823296188842</v>
+        <v>0.02005078111018519</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06756234516855329</v>
+        <v>0.06350517397280782</v>
       </c>
     </row>
     <row r="22">
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01970126063795759</v>
+        <v>0.01977088290499522</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.05481159089977153</v>
+        <v>-0.05247779022814937</v>
       </c>
     </row>
     <row r="23">
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03865563176805151</v>
+        <v>0.0403553302073851</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09411632258328609</v>
+        <v>0.08713118074345402</v>
       </c>
     </row>
     <row r="24">
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02136122017516754</v>
+        <v>0.01938762351288459</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02941967620834475</v>
+        <v>0.02793963532283669</v>
       </c>
     </row>
     <row r="25">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02166356556932441</v>
+        <v>0.0204154269339051</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02172600842164684</v>
+        <v>-0.02911074775354791</v>
       </c>
     </row>
     <row r="26">
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0290087980579119</v>
+        <v>0.02951537731918505</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05666181849024724</v>
+        <v>0.06291725644550752</v>
       </c>
     </row>
     <row r="27">
@@ -3510,10 +3510,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.008882777821272603</v>
+        <v>-0.01386749074095859</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0005252106115222029</v>
+        <v>-0.0002893337537534472</v>
       </c>
     </row>
     <row r="28">
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01063108630303759</v>
+        <v>0.01100335039023775</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0322586906235665</v>
+        <v>-0.04378190207295119</v>
       </c>
     </row>
     <row r="29">
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02698170580144504</v>
+        <v>0.02593830237339715</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0561967071937397</v>
+        <v>0.05540044702589511</v>
       </c>
     </row>
     <row r="30">
@@ -3549,10 +3549,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.05631017864099703</v>
+        <v>0.05795224744244477</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.02477778536267578</v>
+        <v>-0.02612743374891578</v>
       </c>
     </row>
     <row r="31">
@@ -3562,10 +3562,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.005001137662475229</v>
+        <v>0.00582729780653608</v>
       </c>
       <c r="C31" t="n">
-        <v>0.004873449912702215</v>
+        <v>0.009451951732335158</v>
       </c>
     </row>
     <row r="32">
@@ -3575,10 +3575,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.01996629737797774</v>
+        <v>-0.01866961608189738</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.07773161150980738</v>
+        <v>-0.07861977919004856</v>
       </c>
     </row>
     <row r="33">
@@ -3588,10 +3588,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.004239319376356424</v>
+        <v>-0.001244711600302259</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.05253869421343551</v>
+        <v>-0.06010734579787821</v>
       </c>
     </row>
     <row r="34">
@@ -3601,10 +3601,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02897836840827948</v>
+        <v>0.02732974974089301</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.006254789111844728</v>
+        <v>-0.004780268585018346</v>
       </c>
     </row>
     <row r="35">
@@ -3614,10 +3614,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.04403045514074619</v>
+        <v>0.04279554696229751</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.0224340853630565</v>
+        <v>-0.02266346520977094</v>
       </c>
     </row>
     <row r="36">
@@ -3627,10 +3627,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.07126917071291244</v>
+        <v>-0.06835411857464349</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1480744237173348</v>
+        <v>-0.1496302656922489</v>
       </c>
     </row>
     <row r="37">
@@ -3640,10 +3640,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.001562146053911421</v>
+        <v>-0.004956010074092771</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.04663100712932645</v>
+        <v>-0.05398295589722692</v>
       </c>
     </row>
     <row r="38">
@@ -3653,10 +3653,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.07556488965521564</v>
+        <v>-0.07259982770192436</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0004442864342126848</v>
+        <v>-0.006131207166472435</v>
       </c>
     </row>
     <row r="39">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.01769548266442143</v>
+        <v>-0.0172911742494034</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02658184103667736</v>
+        <v>0.008985688909888269</v>
       </c>
     </row>
     <row r="40">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.01686542807365186</v>
+        <v>-0.02072059631100273</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1015443652844988</v>
+        <v>-0.1077698233700357</v>
       </c>
     </row>
     <row r="41">
@@ -3692,10 +3692,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.04611823959261527</v>
+        <v>0.04585032833725562</v>
       </c>
       <c r="C41" t="n">
-        <v>0.008640949213877324</v>
+        <v>0.02317744330503047</v>
       </c>
     </row>
     <row r="42">
@@ -3705,10 +3705,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.03852797699510119</v>
+        <v>0.03451668489549774</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03042534243679256</v>
+        <v>0.02490913619185449</v>
       </c>
     </row>
     <row r="43">
@@ -3718,10 +3718,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.04106301842592073</v>
+        <v>-0.04165496626374077</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1231819282099604</v>
+        <v>-0.1261249516531825</v>
       </c>
     </row>
     <row r="44">
@@ -3731,10 +3731,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.002528870082751382</v>
+        <v>0.001074909068702251</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.06149337467737495</v>
+        <v>-0.05276309483684598</v>
       </c>
     </row>
     <row r="45">
@@ -3744,10 +3744,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.007832804476201998</v>
+        <v>-0.003126052375009753</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.01206185981631278</v>
+        <v>-0.01445481512695549</v>
       </c>
     </row>
     <row r="46">
@@ -3757,10 +3757,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.1009268636725392</v>
+        <v>-0.1018412900253679</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.2608755078818649</v>
+        <v>-0.2624005483742803</v>
       </c>
     </row>
     <row r="47">
@@ -3770,10 +3770,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.1800927085959119</v>
+        <v>-0.1716865185712231</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1845774865662679</v>
+        <v>-0.1844824758684263</v>
       </c>
     </row>
     <row r="48">
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.09625222201459108</v>
+        <v>-0.08837639035657047</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.1295954889326822</v>
+        <v>-0.1387629114172887</v>
       </c>
     </row>
     <row r="49">
@@ -3796,10 +3796,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01381036095379386</v>
+        <v>0.01241623953043017</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07797160102054476</v>
+        <v>0.07378112530335784</v>
       </c>
     </row>
     <row r="50">
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.125859282722231</v>
+        <v>-0.1225005916482769</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1326250445374171</v>
+        <v>0.1448681830146233</v>
       </c>
     </row>
     <row r="51">
@@ -3822,10 +3822,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.06517651722766457</v>
+        <v>-0.09553359464742242</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.1843147636589129</v>
+        <v>-0.1594556512881536</v>
       </c>
     </row>
     <row r="52">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1282830932992511</v>
+        <v>0.1292179664853029</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3552080596378073</v>
+        <v>0.3540361827565357</v>
       </c>
     </row>
     <row r="53">
@@ -3848,10 +3848,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.07345148857450112</v>
+        <v>0.07339623206993565</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3244971489720047</v>
+        <v>0.3288903599791229</v>
       </c>
     </row>
     <row r="54">
@@ -3861,10 +3861,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.003980718881357459</v>
+        <v>-0.003948653715196996</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3008413169643609</v>
+        <v>0.294648293714854</v>
       </c>
     </row>
     <row r="55">
@@ -3874,10 +3874,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.03460586396744474</v>
+        <v>0.03142520483350381</v>
       </c>
       <c r="C55" t="n">
-        <v>0.04015353006776422</v>
+        <v>0.0351964203780517</v>
       </c>
     </row>
     <row r="56">
@@ -3887,10 +3887,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.05851074413862078</v>
+        <v>0.0554966011783108</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07913272261823295</v>
+        <v>0.08027100660110591</v>
       </c>
     </row>
     <row r="57">
@@ -3900,10 +3900,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.01322180749149993</v>
+        <v>-0.002515048098284749</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2759179668105207</v>
+        <v>0.2844854553020559</v>
       </c>
     </row>
     <row r="58">
@@ -3913,10 +3913,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.06491477968753313</v>
+        <v>0.06608893729397095</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2325025625988686</v>
+        <v>0.2379276574119771</v>
       </c>
     </row>
     <row r="59">
@@ -3926,10 +3926,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.05353115708217954</v>
+        <v>-0.05238977165543472</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.160484011049848</v>
+        <v>-0.1625338025647215</v>
       </c>
     </row>
     <row r="60">
@@ -3939,10 +3939,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.03200029842264483</v>
+        <v>0.03031190656125544</v>
       </c>
       <c r="C60" t="n">
-        <v>-6.422661943360854e-05</v>
+        <v>0.002828755669761451</v>
       </c>
     </row>
     <row r="61">
@@ -3952,10 +3952,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.06240819128463042</v>
+        <v>0.06099215799244118</v>
       </c>
       <c r="C61" t="n">
-        <v>0.02359144669317174</v>
+        <v>0.007802501882542854</v>
       </c>
     </row>
     <row r="62">
@@ -3965,10 +3965,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.03260713438619857</v>
+        <v>-0.03236235499964093</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02267700402200717</v>
+        <v>0.01880382536113757</v>
       </c>
     </row>
     <row r="63">
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.03754123153747057</v>
+        <v>0.03755285536521112</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07194428786635397</v>
+        <v>0.06958023779094218</v>
       </c>
     </row>
     <row r="64">
@@ -3991,10 +3991,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.06949367382097986</v>
+        <v>0.07134810761082915</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1037567422667052</v>
+        <v>0.1063434742705431</v>
       </c>
     </row>
     <row r="65">
@@ -4004,10 +4004,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02737530854879877</v>
+        <v>0.02811379524820948</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1324993348587304</v>
+        <v>0.1347521875891834</v>
       </c>
     </row>
     <row r="66">
@@ -4017,10 +4017,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.06752351383416678</v>
+        <v>-0.06846923256031003</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.1276125253271311</v>
+        <v>-0.1276909081544727</v>
       </c>
     </row>
     <row r="67">
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.04728467731765702</v>
+        <v>-0.04568779005698159</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.1699878266826272</v>
+        <v>-0.1746405050531029</v>
       </c>
     </row>
     <row r="68">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.07510544767894314</v>
+        <v>0.0770864380925195</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07356968178937677</v>
+        <v>0.07200545308704021</v>
       </c>
     </row>
     <row r="69">
@@ -4056,10 +4056,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.0652392214676365</v>
+        <v>-0.0735005457140505</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.1156757898227079</v>
+        <v>-0.1113164841727121</v>
       </c>
     </row>
     <row r="70">
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1026183254166972</v>
+        <v>0.1044519825256429</v>
       </c>
       <c r="C70" t="n">
         <v>0.1174490606575273</v>
@@ -4082,10 +4082,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.03921630230033769</v>
+        <v>0.04384884935105218</v>
       </c>
       <c r="C71" t="n">
-        <v>0.03337194801075384</v>
+        <v>0.048489494479727</v>
       </c>
     </row>
     <row r="72">
@@ -4095,10 +4095,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01951902380154932</v>
+        <v>0.02757653143431524</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.04335737803019582</v>
+        <v>-0.03497072690166533</v>
       </c>
     </row>
     <row r="73">
@@ -4108,10 +4108,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.07056205708213381</v>
+        <v>0.07197099405719197</v>
       </c>
       <c r="C73" t="n">
-        <v>0.127566809495911</v>
+        <v>0.1308499765675515</v>
       </c>
     </row>
     <row r="74">
@@ -4121,10 +4121,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01294620389411648</v>
+        <v>0.008277864462597789</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06268990497570485</v>
+        <v>0.06253326839767397</v>
       </c>
     </row>
     <row r="75">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.04851769274100658</v>
+        <v>0.04652659214276352</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.02967857255367561</v>
+        <v>-0.03192555143265053</v>
       </c>
     </row>
     <row r="76">
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01922213897225446</v>
+        <v>0.01823437631595879</v>
       </c>
       <c r="C76" t="n">
-        <v>0.007232581288553776</v>
+        <v>0.004914948602672668</v>
       </c>
     </row>
     <row r="77">
@@ -4160,10 +4160,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02868970141280442</v>
+        <v>0.0174573535991658</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.02747391569428145</v>
+        <v>-0.01836150544695556</v>
       </c>
     </row>
     <row r="78">
@@ -4173,10 +4173,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.01552810740860877</v>
+        <v>-0.02071538488817167</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.02748965286649763</v>
+        <v>-0.03014658086933195</v>
       </c>
     </row>
     <row r="79">
@@ -4186,10 +4186,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.01366956264188047</v>
+        <v>-0.01532279691207804</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.05768159713363273</v>
+        <v>-0.05800342838978393</v>
       </c>
     </row>
     <row r="80">
@@ -4199,10 +4199,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.03489570711142732</v>
+        <v>-0.03186067073940648</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.03206847552675753</v>
+        <v>-0.03254158476833253</v>
       </c>
     </row>
     <row r="81">
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.05675525223021393</v>
+        <v>-0.06200342192081732</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.1571095176786184</v>
+        <v>-0.1582170110195875</v>
       </c>
     </row>
     <row r="82">
@@ -4225,10 +4225,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.1060928067829809</v>
+        <v>-0.1094530992631916</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.1470194857323076</v>
+        <v>-0.1514798697724473</v>
       </c>
     </row>
     <row r="83">
@@ -4238,10 +4238,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1326363104302436</v>
+        <v>0.129801928542729</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1309650990535738</v>
+        <v>0.1450406478421064</v>
       </c>
     </row>
     <row r="84">
@@ -4251,10 +4251,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.009409450272796679</v>
+        <v>0.005051018018275502</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.05930969928915145</v>
+        <v>-0.05983350926602723</v>
       </c>
     </row>
     <row r="85">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01803524359478614</v>
+        <v>0.01886927615967578</v>
       </c>
       <c r="C85" t="n">
         <v>-0.03547199573542456</v>
@@ -4277,10 +4277,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.03887462845654225</v>
+        <v>0.03663202648400328</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2410154627542943</v>
+        <v>0.2434836227726191</v>
       </c>
     </row>
     <row r="87">
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.03763233924371887</v>
+        <v>0.03751236048963619</v>
       </c>
       <c r="C87" t="n">
-        <v>0.06865157221167466</v>
+        <v>0.0682013716986694</v>
       </c>
     </row>
     <row r="88">
@@ -4303,10 +4303,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.03296450864057986</v>
+        <v>0.03376261660829185</v>
       </c>
       <c r="C88" t="n">
-        <v>0.04336641101166607</v>
+        <v>0.04168025193735958</v>
       </c>
     </row>
     <row r="89">
@@ -4316,10 +4316,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.03445434511173517</v>
+        <v>0.02305467555997893</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.04561119345715269</v>
+        <v>-0.04533282921882345</v>
       </c>
     </row>
     <row r="90">
@@ -4329,10 +4329,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.04147170791111419</v>
+        <v>-0.03450019832991528</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.0962244057463249</v>
+        <v>-0.09676137139962519</v>
       </c>
     </row>
     <row r="91">
@@ -4342,10 +4342,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.03324210577207849</v>
+        <v>0.03766129463387186</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.004752802914008498</v>
+        <v>-0.003664180608466268</v>
       </c>
     </row>
     <row r="92">
@@ -4355,10 +4355,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.005822346022468994</v>
+        <v>0.007074121879995796</v>
       </c>
       <c r="C92" t="n">
-        <v>0.02120484069891974</v>
+        <v>0.03742308282264277</v>
       </c>
     </row>
     <row r="93">
@@ -4368,10 +4368,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.02377033707365624</v>
+        <v>0.02613934721477561</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.01193481057183816</v>
+        <v>-0.02039448199095203</v>
       </c>
     </row>
     <row r="94">
@@ -4381,10 +4381,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02350323787133673</v>
+        <v>0.02051619217556434</v>
       </c>
       <c r="C94" t="n">
-        <v>0.02742768064141272</v>
+        <v>0.03352962960489093</v>
       </c>
     </row>
     <row r="95">
@@ -4394,10 +4394,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.000983448826009402</v>
+        <v>0.00143730559269898</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.06635861926479264</v>
+        <v>-0.0658983963006176</v>
       </c>
     </row>
     <row r="96">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.006232622573734256</v>
+        <v>0.01155660056188935</v>
       </c>
       <c r="C96" t="n">
         <v>0.0002451913477852979</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.01240388745442032</v>
+        <v>0.01490239534527063</v>
       </c>
       <c r="C97" t="n">
         <v>0.007548118610502563</v>
@@ -4433,10 +4433,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0560777224646881</v>
+        <v>0.05639781079255042</v>
       </c>
       <c r="C98" t="n">
-        <v>0.09766603260301053</v>
+        <v>0.09840984545648097</v>
       </c>
     </row>
     <row r="99">
@@ -4446,10 +4446,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01291803884436376</v>
+        <v>0.01678115430899196</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.005979414267931125</v>
+        <v>-0.008517540975008149</v>
       </c>
     </row>
     <row r="100">
@@ -4459,10 +4459,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.05812994771258669</v>
+        <v>0.05716732693923401</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0699148454295937</v>
+        <v>0.06879423964419402</v>
       </c>
     </row>
     <row r="101">
@@ -4472,10 +4472,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.001870963533874602</v>
+        <v>-0.00218348752590828</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.001219500582665196</v>
+        <v>-0.007530703702941526</v>
       </c>
     </row>
     <row r="102">
@@ -4485,10 +4485,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.03076473277353214</v>
+        <v>0.03293621280288787</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07534878808655776</v>
+        <v>0.06704651912325062</v>
       </c>
     </row>
     <row r="103">
@@ -4498,10 +4498,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.01064054632151964</v>
+        <v>-0.01066454162064473</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.06083364103746133</v>
+        <v>-0.06194940526795106</v>
       </c>
     </row>
     <row r="104">
@@ -4511,10 +4511,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.07071817394811657</v>
+        <v>0.07815362387802448</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1776358989812434</v>
+        <v>0.1780875114537775</v>
       </c>
     </row>
     <row r="105">
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.02769224948686313</v>
+        <v>-0.03081371935782952</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.06485346964676864</v>
+        <v>-0.06400075785000807</v>
       </c>
     </row>
     <row r="106">
@@ -4537,10 +4537,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.05628466891357672</v>
+        <v>0.05670399058843028</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1290532917995006</v>
+        <v>0.1277322795335203</v>
       </c>
     </row>
     <row r="107">
@@ -4550,10 +4550,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.03772620401869062</v>
+        <v>0.0463988788804272</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.04612646944413426</v>
+        <v>-0.04273045993933919</v>
       </c>
     </row>
     <row r="108">
@@ -4563,10 +4563,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.03950251025898192</v>
+        <v>0.04099891074519414</v>
       </c>
       <c r="C108" t="n">
-        <v>0.09418692105682565</v>
+        <v>0.09324786680983378</v>
       </c>
     </row>
     <row r="109">
@@ -4576,10 +4576,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.04781242386990923</v>
+        <v>0.04339362089609491</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0564488612182322</v>
+        <v>0.05581564746069489</v>
       </c>
     </row>
     <row r="110">
@@ -4589,10 +4589,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.03654430681781375</v>
+        <v>-0.03367894460388923</v>
       </c>
       <c r="C110" t="n">
-        <v>0.06119398084236308</v>
+        <v>0.05191190940095111</v>
       </c>
     </row>
     <row r="111">
@@ -4602,10 +4602,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.04729471391532569</v>
+        <v>0.04628462895285337</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0778085352416383</v>
+        <v>0.08013798673695419</v>
       </c>
     </row>
     <row r="112">
@@ -4615,10 +4615,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.003174049704102794</v>
+        <v>0.001786400490673258</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.03884061453165485</v>
+        <v>-0.03883433714741839</v>
       </c>
     </row>
     <row r="113">
@@ -4628,10 +4628,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.001639845117460928</v>
+        <v>-0.008500734965782604</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.1356820056465221</v>
+        <v>-0.1337251458194805</v>
       </c>
     </row>
     <row r="114">
@@ -4641,7 +4641,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.02040432459558358</v>
+        <v>0.01811365478963124</v>
       </c>
       <c r="C114" t="n">
         <v>-0.03678757734771352</v>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.03887922425987196</v>
+        <v>0.03770589549792928</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0387578003375529</v>
+        <v>0.05080510291147219</v>
       </c>
     </row>
     <row r="116">
@@ -4667,10 +4667,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.03663349396971168</v>
+        <v>-0.03683576409239319</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.09740719722758512</v>
+        <v>-0.1015319746470777</v>
       </c>
     </row>
     <row r="117">
@@ -4680,10 +4680,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.05086851558648047</v>
+        <v>0.05125271538563535</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1171222394611686</v>
+        <v>0.111799005670473</v>
       </c>
     </row>
     <row r="118">
@@ -4693,10 +4693,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.035985689976369</v>
+        <v>-0.03401165793940888</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.1371275943261571</v>
+        <v>-0.1367463762802072</v>
       </c>
     </row>
     <row r="119">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.05286089132190679</v>
+        <v>0.04982156545273025</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.06906452680472284</v>
+        <v>-0.07695277620572596</v>
       </c>
     </row>
     <row r="120">
@@ -4719,10 +4719,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.02748329469526651</v>
+        <v>0.02137416455952915</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.02290398413548246</v>
+        <v>-0.02965488458285108</v>
       </c>
     </row>
     <row r="121">
@@ -4732,10 +4732,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.007276946807905904</v>
+        <v>0.004593224793206891</v>
       </c>
       <c r="C121" t="n">
-        <v>0.04575507228262723</v>
+        <v>0.04815436203964055</v>
       </c>
     </row>
     <row r="122">
@@ -4745,10 +4745,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.01217473290394991</v>
+        <v>-0.0152249274821952</v>
       </c>
       <c r="C122" t="n">
-        <v>0.01770706201117719</v>
+        <v>0.003521312495286121</v>
       </c>
     </row>
     <row r="123">
@@ -4758,10 +4758,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.06671910650213246</v>
+        <v>0.06526612452347762</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1682182358414866</v>
+        <v>0.1691703200549819</v>
       </c>
     </row>
     <row r="124">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.006931909928098307</v>
+        <v>0.01072730475105344</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.08143298637354744</v>
+        <v>-0.07927211841801181</v>
       </c>
     </row>
     <row r="125">
@@ -4784,10 +4784,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.0297740258509293</v>
+        <v>-0.02963194307405499</v>
       </c>
       <c r="C125" t="n">
-        <v>0.01816052951733583</v>
+        <v>0.01430984795908444</v>
       </c>
     </row>
     <row r="126">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.03095273053273557</v>
+        <v>0.03064324998762456</v>
       </c>
       <c r="C126" t="n">
         <v>-0.02613135354593396</v>
@@ -4810,10 +4810,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.01322897920734249</v>
+        <v>0.01176818743231707</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.02056203487096353</v>
+        <v>-0.01995059225475414</v>
       </c>
     </row>
     <row r="128">
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.01555923831823747</v>
+        <v>0.01498681393626611</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.1792863052454777</v>
+        <v>-0.1787436135602183</v>
       </c>
     </row>
     <row r="129">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.04560916390037163</v>
+        <v>-0.0466616833163425</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.01418277400312944</v>
+        <v>-0.02383702597348019</v>
       </c>
     </row>
     <row r="130">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.0266838137997547</v>
+        <v>-0.03115797495527657</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.1285440874285996</v>
+        <v>-0.1310378538258374</v>
       </c>
     </row>
     <row r="131">
@@ -4862,10 +4862,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.05359542747261001</v>
+        <v>0.06370410780655218</v>
       </c>
       <c r="C131" t="n">
-        <v>0.02852412759326398</v>
+        <v>0.02450750011019409</v>
       </c>
     </row>
     <row r="132">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.00699035650643054</v>
+        <v>0.00245379558356944</v>
       </c>
       <c r="C132" t="n">
-        <v>0.177685184981674</v>
+        <v>0.1727073232270778</v>
       </c>
     </row>
     <row r="133">
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.026927832919755</v>
+        <v>-0.02778661649266721</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.1272390680154785</v>
+        <v>-0.1313929835753515</v>
       </c>
     </row>
     <row r="134">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.05530538406223057</v>
+        <v>-0.05628638934344052</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.1198647144762799</v>
+        <v>-0.1205785415275022</v>
       </c>
     </row>
     <row r="135">
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.006849183858139441</v>
+        <v>0.009168574708746746</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.03020299354917368</v>
+        <v>-0.03056932429200968</v>
       </c>
     </row>
     <row r="136">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.0487565140193328</v>
+        <v>0.04884005652274934</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1917024223227054</v>
+        <v>0.1867682612035423</v>
       </c>
     </row>
     <row r="137">
@@ -4940,10 +4940,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.01268931470054667</v>
+        <v>0.01225466734904329</v>
       </c>
       <c r="C137" t="n">
-        <v>0.06223858475452289</v>
+        <v>0.06839808583026752</v>
       </c>
     </row>
     <row r="138">
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.02324391681875566</v>
+        <v>0.02185989112767855</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.05668375010136513</v>
+        <v>-0.05539956668857483</v>
       </c>
     </row>
     <row r="139">
@@ -4966,10 +4966,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.01071309896680759</v>
+        <v>0.01147993984195636</v>
       </c>
       <c r="C139" t="n">
-        <v>0.003349630760494638</v>
+        <v>0.003524528176058103</v>
       </c>
     </row>
     <row r="140">
@@ -4979,10 +4979,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.03707718482706694</v>
+        <v>0.03785587195772676</v>
       </c>
       <c r="C140" t="n">
-        <v>0.08205137994606047</v>
+        <v>0.06864847509190442</v>
       </c>
     </row>
     <row r="141">
@@ -4992,10 +4992,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.01326527702156454</v>
+        <v>-0.009258931861259043</v>
       </c>
       <c r="C141" t="n">
-        <v>0.004032394490204756</v>
+        <v>0.004832662991248078</v>
       </c>
     </row>
     <row r="142">
@@ -5008,7 +5008,7 @@
         <v>-0.00797834333672654</v>
       </c>
       <c r="C142" t="n">
-        <v>0.03125731677399018</v>
+        <v>-0.03699483022443018</v>
       </c>
     </row>
     <row r="143">
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.04210116685600949</v>
+        <v>-0.0402571800467558</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.1791836869996041</v>
+        <v>-0.1835553857963532</v>
       </c>
     </row>
     <row r="144">
@@ -5034,7 +5034,7 @@
         <v>0.06995765587023924</v>
       </c>
       <c r="C144" t="n">
-        <v>0.05661634052172303</v>
+        <v>0.05172161201015115</v>
       </c>
     </row>
     <row r="145">
@@ -5044,10 +5044,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.01988612103101331</v>
+        <v>0.02165321123611647</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.07220535658299922</v>
+        <v>-0.06815494969487189</v>
       </c>
     </row>
     <row r="146">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.009785458962433036</v>
+        <v>-0.004944686684757471</v>
       </c>
       <c r="C146" t="n">
         <v>0.07004235435742884</v>
@@ -5070,10 +5070,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.0206834672379773</v>
+        <v>0.02048293108004144</v>
       </c>
       <c r="C147" t="n">
-        <v>0.01785286507336423</v>
+        <v>0.01844984291819856</v>
       </c>
     </row>
     <row r="148">
@@ -5083,10 +5083,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.004944763674429854</v>
+        <v>0.003910368212527831</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.01435787043534219</v>
+        <v>-0.01517722674645484</v>
       </c>
     </row>
     <row r="149">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.02364373560478268</v>
+        <v>0.02360412910413285</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.08566786682233213</v>
+        <v>-0.0886157584004104</v>
       </c>
     </row>
     <row r="150">
@@ -5109,10 +5109,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.01599302294154767</v>
+        <v>-0.007576409414905351</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.08738133237231521</v>
+        <v>-0.07582411218900231</v>
       </c>
     </row>
     <row r="151">
@@ -5125,7 +5125,7 @@
         <v>0.01544603217625989</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0948880646796897</v>
+        <v>0.09310986001510173</v>
       </c>
     </row>
     <row r="152">
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.006517280274565559</v>
+        <v>0.01238029314161394</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.04291342996526509</v>
+        <v>-0.04467731316108257</v>
       </c>
     </row>
     <row r="153">
@@ -5148,10 +5148,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.0241502561524976</v>
+        <v>-0.02799576663528568</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.05448480750666929</v>
+        <v>-0.07334727198118343</v>
       </c>
     </row>
     <row r="154">
@@ -5161,10 +5161,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.05880084689997601</v>
+        <v>0.06088580080599057</v>
       </c>
       <c r="C154" t="n">
-        <v>0.182741206495557</v>
+        <v>0.1700944498018362</v>
       </c>
     </row>
     <row r="155">
@@ -5174,10 +5174,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.02757151180994696</v>
+        <v>0.02588286007405257</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.03954238899517803</v>
+        <v>-0.04068418454844504</v>
       </c>
     </row>
     <row r="156">
@@ -5187,10 +5187,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.03672506313247138</v>
+        <v>0.03879840930399948</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.007784627161454409</v>
+        <v>-0.004935898713301869</v>
       </c>
     </row>
     <row r="157">
@@ -5200,10 +5200,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.001970745119906505</v>
+        <v>0.001826378712139564</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01317687637638302</v>
+        <v>0.0123344037262723</v>
       </c>
     </row>
     <row r="158">
@@ -5213,10 +5213,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.0380499893100932</v>
+        <v>0.03680694118607786</v>
       </c>
       <c r="C158" t="n">
-        <v>0.07834036538144573</v>
+        <v>0.07664082107832655</v>
       </c>
     </row>
     <row r="159">
@@ -5226,10 +5226,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.05262161425809606</v>
+        <v>-0.05106752054794922</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.07675944138201883</v>
+        <v>-0.0762372746306937</v>
       </c>
     </row>
     <row r="160">
@@ -5239,10 +5239,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.006012822129414409</v>
+        <v>0.004492770769284099</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.01357818346470593</v>
+        <v>-0.01472715156152843</v>
       </c>
     </row>
     <row r="161">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.003288323709857653</v>
+        <v>-0.002891048458986918</v>
       </c>
       <c r="C161" t="n">
-        <v>0.006245443641673782</v>
+        <v>0.00788202308816836</v>
       </c>
     </row>
     <row r="162">
@@ -5265,10 +5265,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.03758701233222381</v>
+        <v>0.03636184768780366</v>
       </c>
       <c r="C162" t="n">
-        <v>0.05960358545184134</v>
+        <v>0.05443245969712733</v>
       </c>
     </row>
     <row r="163">
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.00218741086413501</v>
+        <v>0.0044714366235712</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.06970965462736785</v>
+        <v>-0.07215611445717512</v>
       </c>
     </row>
     <row r="164">
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.01774892211920813</v>
+        <v>0.01659964893973663</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.05509466869756578</v>
+        <v>-0.04291526306420564</v>
       </c>
     </row>
     <row r="165">
@@ -5304,10 +5304,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.0441360196599271</v>
+        <v>0.04047663026838562</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.02107931628357618</v>
+        <v>-0.01398985271807759</v>
       </c>
     </row>
     <row r="166">
@@ -5317,10 +5317,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-0.02227525596652412</v>
+        <v>-0.02285737080645048</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.03513308915542437</v>
+        <v>-0.03889110955642535</v>
       </c>
     </row>
     <row r="167">
@@ -5330,10 +5330,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.08635555072105486</v>
+        <v>-0.09117440512753089</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.1628483875468373</v>
+        <v>-0.1575044230744242</v>
       </c>
     </row>
     <row r="168">
@@ -5343,10 +5343,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.01534367961692623</v>
+        <v>0.01369808712857775</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.05783343476476147</v>
+        <v>-0.04408851784886791</v>
       </c>
     </row>
     <row r="169">
@@ -5356,10 +5356,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.1056977577367797</v>
+        <v>-0.1030928382114507</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.2624530852399766</v>
+        <v>-0.2571473024599254</v>
       </c>
     </row>
     <row r="170">
@@ -5369,10 +5369,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.0793655251874588</v>
+        <v>0.08056669075740498</v>
       </c>
       <c r="C170" t="n">
-        <v>0.27970981804654</v>
+        <v>0.2744245527498423</v>
       </c>
     </row>
     <row r="171">
@@ -5382,10 +5382,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.0513521960377693</v>
+        <v>0.05110159391537307</v>
       </c>
       <c r="C171" t="n">
-        <v>0.1095648223120952</v>
+        <v>0.1093433264043415</v>
       </c>
     </row>
     <row r="172">
@@ -5395,10 +5395,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.0004279732622671967</v>
+        <v>-0.0005010690365452394</v>
       </c>
       <c r="C172" t="n">
-        <v>0.002574254225473856</v>
+        <v>0.01870696418685839</v>
       </c>
     </row>
     <row r="173">
@@ -5408,10 +5408,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.04276577401280517</v>
+        <v>0.04409063258979583</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.01468056075274944</v>
+        <v>-0.003513767216354606</v>
       </c>
     </row>
     <row r="174">
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.04801840211730449</v>
+        <v>-0.04848110739141701</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.1372187335672788</v>
+        <v>-0.1336830736231059</v>
       </c>
     </row>
     <row r="175">
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.07348822638145062</v>
+        <v>0.07422083422294232</v>
       </c>
       <c r="C175" t="n">
-        <v>0.03047875568270683</v>
+        <v>0.02688331879675388</v>
       </c>
     </row>
     <row r="176">
@@ -5447,10 +5447,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.009923617733875283</v>
+        <v>0.01109157051541842</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.0645779648562893</v>
+        <v>-0.07109770835842935</v>
       </c>
     </row>
     <row r="177">
@@ -5460,10 +5460,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-0.01792651940602809</v>
+        <v>-0.01539108044002205</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.03311629137489944</v>
+        <v>-0.0287486747978255</v>
       </c>
     </row>
     <row r="178">
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-0.003574553312500947</v>
+        <v>-0.0005494840012397711</v>
       </c>
       <c r="C178" t="n">
         <v>-0.05576160910772159</v>
@@ -5486,10 +5486,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.0006275658775120932</v>
+        <v>0.004593609711155291</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.02866583534050731</v>
+        <v>-0.02806010399479417</v>
       </c>
     </row>
     <row r="180">
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.0402676810068078</v>
+        <v>0.0402362696197815</v>
       </c>
       <c r="C180" t="n">
-        <v>0.07690433189418401</v>
+        <v>0.07208674796827837</v>
       </c>
     </row>
     <row r="181">
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.006137298294925132</v>
+        <v>0.005492214462137783</v>
       </c>
       <c r="C181" t="n">
-        <v>0.06598332374705933</v>
+        <v>0.06091316058649682</v>
       </c>
     </row>
     <row r="182">
@@ -5525,10 +5525,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-0.01896798578323796</v>
+        <v>-0.01759738392429426</v>
       </c>
       <c r="C182" t="n">
-        <v>0.05618890165584163</v>
+        <v>0.05343801371054725</v>
       </c>
     </row>
     <row r="183">
@@ -5538,10 +5538,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.09588383721013084</v>
+        <v>-0.09713881303381637</v>
       </c>
       <c r="C183" t="n">
-        <v>0.03918319510819857</v>
+        <v>0.03864106430264656</v>
       </c>
     </row>
     <row r="184">
@@ -5551,10 +5551,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.1865447511477396</v>
+        <v>-0.1839257164625451</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.2525581235450227</v>
+        <v>-0.2526064870518167</v>
       </c>
     </row>
     <row r="185">
@@ -5564,10 +5564,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.1259020910441177</v>
+        <v>0.1291358014178695</v>
       </c>
       <c r="C185" t="n">
-        <v>0.3101022586692125</v>
+        <v>0.3094428755808621</v>
       </c>
     </row>
     <row r="186">
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.05975935810274675</v>
+        <v>0.05992504941910735</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1106986278528348</v>
+        <v>0.1140922660101205</v>
       </c>
     </row>
     <row r="187">
@@ -5590,10 +5590,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.02712527813680936</v>
+        <v>0.02384868675668259</v>
       </c>
       <c r="C187" t="n">
-        <v>0.268773612389341</v>
+        <v>0.2687858807388693</v>
       </c>
     </row>
     <row r="188">
@@ -5603,10 +5603,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.0558875010779593</v>
+        <v>0.04898796572000718</v>
       </c>
       <c r="C188" t="n">
-        <v>0.1028969661798328</v>
+        <v>0.09935228793881834</v>
       </c>
     </row>
     <row r="189">
@@ -5616,10 +5616,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.03036695298505946</v>
+        <v>0.0285846834653057</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.03870533307548612</v>
+        <v>-0.03873675805982202</v>
       </c>
     </row>
     <row r="190">
@@ -5629,10 +5629,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.01155056168259761</v>
+        <v>-0.009261716156543108</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.03764794837683438</v>
+        <v>-0.03780207749456167</v>
       </c>
     </row>
     <row r="191">
@@ -5642,10 +5642,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.01816195052932016</v>
+        <v>0.01667326434399001</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.0833042895584367</v>
+        <v>-0.07830474084010346</v>
       </c>
     </row>
     <row r="192">
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.1348881785146659</v>
+        <v>0.1360611404426163</v>
       </c>
       <c r="C192" t="n">
         <v>0.3860272403946146</v>
@@ -5668,10 +5668,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.04489205419667994</v>
+        <v>0.04507301254314369</v>
       </c>
       <c r="C193" t="n">
-        <v>0.1321757645229809</v>
+        <v>0.1312730763922446</v>
       </c>
     </row>
     <row r="194">
@@ -5681,10 +5681,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.03831709862919525</v>
+        <v>0.02635253348620609</v>
       </c>
       <c r="C194" t="n">
-        <v>0.3914625630388036</v>
+        <v>0.3780887131066993</v>
       </c>
     </row>
     <row r="195">
@@ -5694,10 +5694,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.05731598264537751</v>
+        <v>0.05895738249644637</v>
       </c>
       <c r="C195" t="n">
-        <v>0.168124848427251</v>
+        <v>0.1639599295053631</v>
       </c>
     </row>
     <row r="196">
@@ -5710,7 +5710,7 @@
         <v>0.053281568637758</v>
       </c>
       <c r="C196" t="n">
-        <v>0.01362517552683131</v>
+        <v>0.01595304398797454</v>
       </c>
     </row>
     <row r="197">
@@ -5720,10 +5720,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.0196968918503262</v>
+        <v>0.01936452606925739</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.05216005950234828</v>
+        <v>-0.04662532477639614</v>
       </c>
     </row>
     <row r="198">
@@ -5733,10 +5733,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.02704913957481038</v>
+        <v>0.0257423334798659</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.002041408392833541</v>
+        <v>-0.001324852659599852</v>
       </c>
     </row>
     <row r="199">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-0.01174517879437188</v>
+        <v>-0.01145045915618538</v>
       </c>
       <c r="C199" t="n">
-        <v>0.06020311702042817</v>
+        <v>0.0585326625779271</v>
       </c>
     </row>
     <row r="200">
@@ -5759,10 +5759,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2.852844307198916e-05</v>
+        <v>-0.001757320656906814</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.1503433643002063</v>
+        <v>-0.1505404577869922</v>
       </c>
     </row>
     <row r="201">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.02447185467055532</v>
+        <v>0.0223222892085323</v>
       </c>
       <c r="C201" t="n">
         <v>0.01563689983682708</v>
@@ -5785,10 +5785,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-0.03794121721584813</v>
+        <v>-0.03843753773544447</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.04374344888841732</v>
+        <v>-0.04155763605376703</v>
       </c>
     </row>
     <row r="203">
@@ -5798,10 +5798,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.06052185696898957</v>
+        <v>0.06036976565956136</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.02240760316140948</v>
+        <v>-0.01647443768568336</v>
       </c>
     </row>
     <row r="204">
@@ -5811,10 +5811,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-0.007431974563514806</v>
+        <v>-0.007829445939278222</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.1318053737934679</v>
+        <v>-0.1337221797462552</v>
       </c>
     </row>
     <row r="205">
@@ -5824,10 +5824,10 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.04196905185934154</v>
+        <v>0.03837035377044229</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.08686938483500851</v>
+        <v>-0.08621095959329976</v>
       </c>
     </row>
     <row r="206">
@@ -5837,10 +5837,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-0.05611271434667286</v>
+        <v>-0.0561621371770161</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.1119312759302556</v>
+        <v>-0.1102416955120861</v>
       </c>
     </row>
     <row r="207">
@@ -5850,10 +5850,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.01112375243625138</v>
+        <v>0.01199203987664078</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.01358141430653631</v>
+        <v>-0.01047787004150449</v>
       </c>
     </row>
     <row r="208">
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.001422877146396788</v>
+        <v>-8.313165744766468e-05</v>
       </c>
       <c r="C208" t="n">
         <v>0.06068258588202298</v>
